--- a/data/trans_dic/P25A$medico-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P25A$medico-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,17 +686,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,57; 42,67</t>
+          <t>15,43; 40,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,3; 20,89</t>
+          <t>6,22; 21,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 11,17</t>
+          <t>1,28; 10,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,34 +706,34 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,98</t>
+          <t>0,0; 15,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,62</t>
+          <t>0,0; 11,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,01; 30,03</t>
+          <t>10,46; 28,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,73; 16,71</t>
+          <t>5,51; 17,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,57; 8,5</t>
+          <t>1,89; 8,76</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,26; 38,88</t>
+          <t>21,11; 38,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,7; 30,27</t>
+          <t>13,96; 29,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,29; 35,4</t>
+          <t>14,77; 35,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,34</t>
+          <t>0,0; 24,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,64; 16,05</t>
+          <t>0,0; 13,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,91</t>
+          <t>0,0; 25,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,43; 33,3</t>
+          <t>18,15; 33,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,36; 22,23</t>
+          <t>10,97; 22,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,13; 28,58</t>
+          <t>12,08; 27,71</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,35; 24,61</t>
+          <t>7,74; 25,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,26; 35,59</t>
+          <t>17,39; 36,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,6; 28,92</t>
+          <t>10,34; 28,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,93</t>
+          <t>0,0; 40,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 22,83</t>
+          <t>2,78; 23,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,74</t>
+          <t>0,0; 19,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,13; 23,68</t>
+          <t>7,87; 23,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,01; 29,88</t>
+          <t>14,09; 29,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,46; 21,27</t>
+          <t>7,9; 20,94</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,84; 33,06</t>
+          <t>15,74; 34,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,92; 15,77</t>
+          <t>3,91; 15,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,28; 17,5</t>
+          <t>5,87; 18,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,42</t>
+          <t>0,0; 12,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,08</t>
+          <t>0,0; 10,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,4</t>
+          <t>0,0; 10,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,48; 24,3</t>
+          <t>10,58; 24,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,41; 12,03</t>
+          <t>2,79; 11,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,21; 13,29</t>
+          <t>4,35; 13,9</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,36; 30,57</t>
+          <t>8,13; 29,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,02; 25,8</t>
+          <t>2,0; 23,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,55; 30,5</t>
+          <t>2,59; 28,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,06</t>
+          <t>0,0; 23,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,29; 27,88</t>
+          <t>3,53; 30,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,02</t>
+          <t>0,0; 35,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,94; 23,19</t>
+          <t>6,14; 22,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,12; 20,74</t>
+          <t>4,05; 20,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,76; 22,22</t>
+          <t>4,0; 23,37</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1235,27 +1236,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,38; 42,26</t>
+          <t>17,21; 40,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,59; 30,36</t>
+          <t>13,49; 31,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,89; 28,92</t>
+          <t>8,2; 30,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,42; 40,09</t>
+          <t>5,48; 40,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,51</t>
+          <t>0,0; 26,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1265,24 +1266,24 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,95; 35,89</t>
+          <t>16,69; 37,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,71; 26,54</t>
+          <t>10,86; 25,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,88; 22,78</t>
+          <t>5,48; 21,2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,63; 34,05</t>
+          <t>16,69; 33,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,82; 32,74</t>
+          <t>19,34; 33,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28,61; 46,96</t>
+          <t>28,23; 46,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,35</t>
+          <t>0,0; 23,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,61; 22,91</t>
+          <t>7,25; 22,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,27; 29,04</t>
+          <t>12,29; 30,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,14; 27,89</t>
+          <t>13,41; 28,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>16,23; 26,86</t>
+          <t>16,48; 27,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>24,47; 37,72</t>
+          <t>24,31; 37,81</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>29,74; 46,07</t>
+          <t>29,43; 46,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,97; 34,31</t>
+          <t>16,79; 34,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,55; 25,03</t>
+          <t>9,43; 23,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,67; 20,93</t>
+          <t>5,71; 21,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,86; 21,65</t>
+          <t>6,12; 22,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,39; 17,64</t>
+          <t>3,39; 18,25</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>22,91; 35,42</t>
+          <t>23,11; 35,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>14,79; 27,3</t>
+          <t>14,84; 27,23</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,84; 19,46</t>
+          <t>7,95; 18,75</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>23,81; 30,56</t>
+          <t>23,46; 30,66</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>16,94; 22,68</t>
+          <t>16,9; 22,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>16,32; 22,57</t>
+          <t>16,13; 22,83</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,37; 12,57</t>
+          <t>5,34; 13,31</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,2; 12,12</t>
+          <t>6,3; 12,19</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,25; 12,43</t>
+          <t>6,33; 12,48</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>19,03; 24,55</t>
+          <t>18,99; 24,54</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>14,09; 18,41</t>
+          <t>13,96; 18,48</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>13,34; 18,32</t>
+          <t>13,39; 18,38</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, el consejo médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12355</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10086</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3626</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1949</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1949</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>12355</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>12035</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>5575</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7168; 18825</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5044; 17544</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1013; 8457</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2005</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6200</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6149</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6957; 19201</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6679; 20830</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2479; 11472</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>33364</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>25659</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>17224</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3194</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2080</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>35388</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>28853</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>19303</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>24028; 43656</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>16889; 35937</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>10682; 25800</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6362</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 8315</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7345</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>25356; 46594</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>19834; 39872</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>12275; 28163</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>9363</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>21275</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>11327</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1842</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2930</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>997</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>11205</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>24204</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12324</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4932; 16054</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>14311; 30363</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6412; 17885</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5813</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>912; 7620</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5273</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6138; 18371</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16211; 34215</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7080; 18768</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>17932</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>8565</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>9548</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>986</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>18901</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>9552</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>10522</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>11947; 26015</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4127; 15976</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>5109; 16539</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4861</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4994</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4619</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>12016; 27407</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>4244; 18117</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>5725; 18319</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6840</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4490</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3492</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2039</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3098</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1845</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>8879</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>7588</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5337</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3342; 12302</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1009; 11843</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>823; 9162</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6783</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>949; 8055</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5986</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4304; 15525</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3132; 15707</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1951; 11407</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>15153</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>17504</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>7332</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3235</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>978</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>18388</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>18482</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>7332</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>9099; 21486</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>11211; 26184</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>3641; 13565</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1032; 7539</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5840</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1770</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>11962; 27070</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>11403; 26789</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>3352; 12969</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>22735</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>41377</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>48439</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2502</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>12988</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>16649</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>25237</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>54365</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>65088</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>15380; 31107</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>31440; 53739</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>35825; 59273</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 7777</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>6653; 20832</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>10379; 25495</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>16771; 35546</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>41911; 69247</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>51379; 79920</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>51757</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>31820</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>15914</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>8440</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>8351</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>5582</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>60197</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>40170</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>21496</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>40769; 64096</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>21864; 44641</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>9623; 23841</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>4118; 15757</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>4095; 15299</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>2171; 11668</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>48684; 73977</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>29254; 53693</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>13196; 31130</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>169499</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>160776</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>116902</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>21051</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>34474</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>30075</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>190550</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>195250</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>146977</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>146547; 191499</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>137926; 184183</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>97643; 138260</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>13395; 33379</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>24372; 47132</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>21270; 41895</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>166235; 214789</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>167872; 222191</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>125999; 173037</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>